--- a/biology/Botanique/Echium_plantagineum/Echium_plantagineum.xlsx
+++ b/biology/Botanique/Echium_plantagineum/Echium_plantagineum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vipérine faux-plantain (Echium plantagineum) est une plante herbacée du genre Echium et de la famille des Boraginacées, également appelée Vipérine à feuilles de plantain ou Vipérine pourpre. Cette plante annuelle ou bisannuelle aux fruits verruqueux et aux feuilles basales atteint 20 à 60 cm ; hérissées de poils doux, les vipérines doivent leur nom à des fleurs rappelant une gueule de vipère. Courante en région méditerranéenne dans les friches ou les bords de chemin, la vipérine est employée en médecine populaire contre la grippe, les inflammations pulmonaires et les fièvres éruptives infantiles.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante bisannuelle d’environ 60 cm, velue, aux fleurs mauves.
-La floraison a lieu de mars à août[1].
+La floraison a lieu de mars à août.
 Le phénomène de fasciation peut être observé sur E. plantagineum. Il entraîne alors une croissance exagérée, un élargissement de la tige et une floraison exubérante.
 </t>
         </is>
@@ -544,11 +558,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le sud de l'Espagne en zone de forêt méditerranéenne, la graine de cette espèce (Echium plantagineum) est la plus fréquemment trouvée dans le tube digestif de la Tourterelle des bois (avec la graine de Amaranthus deflexus)[2], une espèce de colombe en forte régression dans toute l'Europe. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le sud de l'Espagne en zone de forêt méditerranéenne, la graine de cette espèce (Echium plantagineum) est la plus fréquemment trouvée dans le tube digestif de la Tourterelle des bois (avec la graine de Amaranthus deflexus), une espèce de colombe en forte régression dans toute l'Europe. 
 La Vipérine pourpre est utilisée comme plante fourragère.
-Introduite en Australie, elle y est devenue une plante envahissante[3].
+Introduite en Australie, elle y est devenue une plante envahissante.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Riche en acides gras oméga-3, on l'emploie comme émollient contre les irritations, et comme protection sur les peaux sensibles.
 </t>
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Echiuum lycopsis L.,
 Echium violaceum L.,
